--- a/src/main/resources/excelsheets/usZip/GetInfoByZip/USZip.xlsx
+++ b/src/main/resources/excelsheets/usZip/GetInfoByZip/USZip.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.mcgrail\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.mcgrail\Git\Demo-Java-Automation\src\main\resources\excelsheets\usZip\GetInfoByZip\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Main</t>
   </si>
@@ -35,7 +35,34 @@
     <t>Value</t>
   </si>
   <si>
-    <t>/Envelope/Body/GetInfoByZIP/USZip</t>
+    <t>[A-Z a-z].*</t>
+  </si>
+  <si>
+    <t>[A-Z]{2}</t>
+  </si>
+  <si>
+    <t>[0-9]{5}</t>
+  </si>
+  <si>
+    <t>[0-9]{3}</t>
+  </si>
+  <si>
+    <t>[A-Z]{1}</t>
+  </si>
+  <si>
+    <t>/Envelope/Body/GetInfoByZIPResponse/GetInfoByZIPResult/NewDataSet/Table[1]/CITY</t>
+  </si>
+  <si>
+    <t>/Envelope/Body/GetInfoByZIPResponse/GetInfoByZIPResult/NewDataSet/Table[1]/STATE</t>
+  </si>
+  <si>
+    <t>/Envelope/Body/GetInfoByZIPResponse/GetInfoByZIPResult/NewDataSet/Table[1]/ZIP</t>
+  </si>
+  <si>
+    <t>/Envelope/Body/GetInfoByZIPResponse/GetInfoByZIPResult/NewDataSet/Table[1]/AREA_CODE</t>
+  </si>
+  <si>
+    <t>/Envelope/Body/GetInfoByZIPResponse/GetInfoByZIPResult/NewDataSet/Table[1]/TIME_ZONE</t>
   </si>
 </sst>
 </file>
@@ -387,15 +414,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="88.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -411,7 +439,42 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excelsheets/usZip/GetInfoByZip/USZip.xlsx
+++ b/src/main/resources/excelsheets/usZip/GetInfoByZip/USZip.xlsx
@@ -50,19 +50,19 @@
     <t>[A-Z]{1}</t>
   </si>
   <si>
-    <t>/Envelope/Body/GetInfoByZIPResponse/GetInfoByZIPResult/NewDataSet/Table[1]/CITY</t>
-  </si>
-  <si>
-    <t>/Envelope/Body/GetInfoByZIPResponse/GetInfoByZIPResult/NewDataSet/Table[1]/STATE</t>
-  </si>
-  <si>
-    <t>/Envelope/Body/GetInfoByZIPResponse/GetInfoByZIPResult/NewDataSet/Table[1]/ZIP</t>
-  </si>
-  <si>
-    <t>/Envelope/Body/GetInfoByZIPResponse/GetInfoByZIPResult/NewDataSet/Table[1]/AREA_CODE</t>
-  </si>
-  <si>
-    <t>/Envelope/Body/GetInfoByZIPResponse/GetInfoByZIPResult/NewDataSet/Table[1]/TIME_ZONE</t>
+    <t>/Envelope/Body/GetInfoByZIPResponse/GetInfoByZIPResult/NewDataSet/Table/CITY</t>
+  </si>
+  <si>
+    <t>/Envelope/Body/GetInfoByZIPResponse/GetInfoByZIPResult/NewDataSet/Table/STATE</t>
+  </si>
+  <si>
+    <t>/Envelope/Body/GetInfoByZIPResponse/GetInfoByZIPResult/NewDataSet/Table/ZIP</t>
+  </si>
+  <si>
+    <t>/Envelope/Body/GetInfoByZIPResponse/GetInfoByZIPResult/NewDataSet/Table/AREA_CODE</t>
+  </si>
+  <si>
+    <t>/Envelope/Body/GetInfoByZIPResponse/GetInfoByZIPResult/NewDataSet/Table/TIME_ZONE</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
